--- a/descritores/lbp/18 camadas/Pasta1.xlsx
+++ b/descritores/lbp/18 camadas/Pasta1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Curva de Perda" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +55,11 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -77,10 +82,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,10 +384,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Curva de Perda'!$A$2:$A$33</c:f>
+              <c:f>'Curva de Perda'!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>000,000,000,000</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>3.26824010198</c:v>
                 </c:pt>
@@ -496,105 +502,114 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Curva de Perda'!$B$2:$B$33</c:f>
+              <c:f>'Curva de Perda'!$B$2:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>000,000,000,000</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>3.2677002850500001</c:v>
+                  <c:v>3.2682789888700001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2646928744500001</c:v>
+                  <c:v>3.2648387330999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.26525477161</c:v>
+                  <c:v>3.26329164766</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2649546763699999</c:v>
+                  <c:v>3.2644278712600001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.26365986362</c:v>
+                  <c:v>3.2634542953699999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2636741892300001</c:v>
+                  <c:v>3.2646511839699999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2626841662700001</c:v>
+                  <c:v>3.2638545773700001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2592793655799999</c:v>
+                  <c:v>3.2632081893699998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2590481430599998</c:v>
+                  <c:v>3.2613482136299998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.25833671483</c:v>
+                  <c:v>3.25897794217</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2581325474599998</c:v>
+                  <c:v>3.2592555833299999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.2580442591000001</c:v>
+                  <c:v>3.25848853866</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.2580196936800001</c:v>
+                  <c:v>3.25812606117</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.2579981952399999</c:v>
+                  <c:v>3.2580572873200002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.2577562866699998</c:v>
+                  <c:v>3.2580105649400002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.25775530118</c:v>
+                  <c:v>3.2580076544300001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.2577568175099998</c:v>
+                  <c:v>3.2580072390599999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.2576911556599999</c:v>
+                  <c:v>3.2577832354499998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.2576916578500001</c:v>
+                  <c:v>3.2577810714000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.2576916323399998</c:v>
+                  <c:v>3.25777665181</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.2576801208299999</c:v>
+                  <c:v>3.2577274532799998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.2576807886900001</c:v>
+                  <c:v>3.25772556587</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.2576813790700001</c:v>
+                  <c:v>3.2577242521700001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.2576788348200001</c:v>
+                  <c:v>3.2577154093999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.2576788347700001</c:v>
+                  <c:v>3.2577158257000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.2576786589100002</c:v>
+                  <c:v>3.25771574925</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.2576782787199998</c:v>
+                  <c:v>3.2577134944999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.2576782456300002</c:v>
+                  <c:v>3.2577134439300002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.2576782562200002</c:v>
+                  <c:v>3.2577135502500001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.25767815689</c:v>
+                  <c:v>3.2577131170700002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.2576781542200002</c:v>
+                  <c:v>3.2577131124099998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.25767815705</c:v>
+                  <c:v>3.2577131080999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2577130272099999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.2577130243100001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.25771302816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -611,11 +626,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="184308096"/>
-        <c:axId val="184309632"/>
+        <c:axId val="188305792"/>
+        <c:axId val="188307328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="184308096"/>
+        <c:axId val="188305792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -624,7 +639,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184309632"/>
+        <c:crossAx val="188307328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -632,7 +647,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184309632"/>
+        <c:axId val="188307328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -662,7 +677,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184308096"/>
+        <c:crossAx val="188305792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -849,11 +864,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="184334592"/>
-        <c:axId val="184225792"/>
+        <c:axId val="188332288"/>
+        <c:axId val="188223488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="184334592"/>
+        <c:axId val="188332288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -862,7 +877,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184225792"/>
+        <c:crossAx val="188223488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -870,7 +885,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184225792"/>
+        <c:axId val="188223488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -881,7 +896,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184334592"/>
+        <c:crossAx val="188332288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -954,105 +969,114 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Curva de Perda'!$B$2:$B$33</c:f>
+              <c:f>'Curva de Perda'!$B$2:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>000,000,000,000</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>3.2677002850500001</c:v>
+                  <c:v>3.2682789888700001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2646928744500001</c:v>
+                  <c:v>3.2648387330999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.26525477161</c:v>
+                  <c:v>3.26329164766</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2649546763699999</c:v>
+                  <c:v>3.2644278712600001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.26365986362</c:v>
+                  <c:v>3.2634542953699999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2636741892300001</c:v>
+                  <c:v>3.2646511839699999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2626841662700001</c:v>
+                  <c:v>3.2638545773700001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2592793655799999</c:v>
+                  <c:v>3.2632081893699998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2590481430599998</c:v>
+                  <c:v>3.2613482136299998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.25833671483</c:v>
+                  <c:v>3.25897794217</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2581325474599998</c:v>
+                  <c:v>3.2592555833299999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.2580442591000001</c:v>
+                  <c:v>3.25848853866</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.2580196936800001</c:v>
+                  <c:v>3.25812606117</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.2579981952399999</c:v>
+                  <c:v>3.2580572873200002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.2577562866699998</c:v>
+                  <c:v>3.2580105649400002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.25775530118</c:v>
+                  <c:v>3.2580076544300001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.2577568175099998</c:v>
+                  <c:v>3.2580072390599999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.2576911556599999</c:v>
+                  <c:v>3.2577832354499998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.2576916578500001</c:v>
+                  <c:v>3.2577810714000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.2576916323399998</c:v>
+                  <c:v>3.25777665181</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.2576801208299999</c:v>
+                  <c:v>3.2577274532799998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.2576807886900001</c:v>
+                  <c:v>3.25772556587</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.2576813790700001</c:v>
+                  <c:v>3.2577242521700001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.2576788348200001</c:v>
+                  <c:v>3.2577154093999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.2576788347700001</c:v>
+                  <c:v>3.2577158257000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.2576786589100002</c:v>
+                  <c:v>3.25771574925</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.2576782787199998</c:v>
+                  <c:v>3.2577134944999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.2576782456300002</c:v>
+                  <c:v>3.2577134439300002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.2576782562200002</c:v>
+                  <c:v>3.2577135502500001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.25767815689</c:v>
+                  <c:v>3.2577131170700002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.2576781542200002</c:v>
+                  <c:v>3.2577131124099998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.25767815705</c:v>
+                  <c:v>3.2577131080999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2577130272099999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.2577130243100001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.25771302816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1069,11 +1093,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="184237440"/>
-        <c:axId val="184251520"/>
+        <c:axId val="188235136"/>
+        <c:axId val="188245120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="184237440"/>
+        <c:axId val="188235136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1082,7 +1106,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184251520"/>
+        <c:crossAx val="188245120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1090,7 +1114,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184251520"/>
+        <c:axId val="188245120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1101,7 +1125,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184237440"/>
+        <c:crossAx val="188235136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1232,11 +1256,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="184915456"/>
-        <c:axId val="184916992"/>
+        <c:axId val="188918784"/>
+        <c:axId val="188920576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="184915456"/>
+        <c:axId val="188918784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1246,7 +1270,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184916992"/>
+        <c:crossAx val="188920576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1254,7 +1278,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184916992"/>
+        <c:axId val="188920576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1265,7 +1289,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184915456"/>
+        <c:crossAx val="188918784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1396,11 +1420,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="185020800"/>
-        <c:axId val="185022336"/>
+        <c:axId val="188560128"/>
+        <c:axId val="188561664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="185020800"/>
+        <c:axId val="188560128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1410,7 +1434,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185022336"/>
+        <c:crossAx val="188561664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1418,7 +1442,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185022336"/>
+        <c:axId val="188561664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1429,7 +1453,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185020800"/>
+        <c:crossAx val="188560128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1690,11 +1714,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="185068928"/>
-        <c:axId val="184943744"/>
+        <c:axId val="188898688"/>
+        <c:axId val="188900480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="185068928"/>
+        <c:axId val="188898688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1704,7 +1728,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184943744"/>
+        <c:crossAx val="188900480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1712,7 +1736,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184943744"/>
+        <c:axId val="188900480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1724,7 +1748,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185068928"/>
+        <c:crossAx val="188898688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1836,11 +1860,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="184934400"/>
-        <c:axId val="201043328"/>
+        <c:axId val="188258176"/>
+        <c:axId val="188650240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="184934400"/>
+        <c:axId val="188258176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1849,7 +1873,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201043328"/>
+        <c:crossAx val="188650240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1857,7 +1881,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201043328"/>
+        <c:axId val="188650240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1868,7 +1892,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184934400"/>
+        <c:crossAx val="188258176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2119,8 +2143,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TabelaCurvaPerda" displayName="TabelaCurvaPerda" ref="A1:B33" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:B33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TabelaCurvaPerda" displayName="TabelaCurvaPerda" ref="A1:B43" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:B43"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Melhor caso" dataDxfId="11"/>
     <tableColumn id="2" name="Pior caso" dataDxfId="10"/>
@@ -2429,10 +2453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2453,7 +2477,7 @@
         <v>3.26824010198</v>
       </c>
       <c r="B2" s="2">
-        <v>3.2677002850500001</v>
+        <v>3.2682789888700001</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2461,7 +2485,7 @@
         <v>3.2642711641400002</v>
       </c>
       <c r="B3" s="2">
-        <v>3.2646928744500001</v>
+        <v>3.2648387330999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2469,7 +2493,7 @@
         <v>3.2635098971700001</v>
       </c>
       <c r="B4" s="2">
-        <v>3.26525477161</v>
+        <v>3.26329164766</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2477,7 +2501,7 @@
         <v>3.2646446631999999</v>
       </c>
       <c r="B5" s="2">
-        <v>3.2649546763699999</v>
+        <v>3.2644278712600001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2485,7 +2509,7 @@
         <v>3.26359948141</v>
       </c>
       <c r="B6" s="2">
-        <v>3.26365986362</v>
+        <v>3.2634542953699999</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2493,7 +2517,7 @@
         <v>3.26401479952</v>
       </c>
       <c r="B7" s="2">
-        <v>3.2636741892300001</v>
+        <v>3.2646511839699999</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2501,7 +2525,7 @@
         <v>3.2623409892600002</v>
       </c>
       <c r="B8" s="2">
-        <v>3.2626841662700001</v>
+        <v>3.2638545773700001</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2509,7 +2533,7 @@
         <v>3.2589667268600002</v>
       </c>
       <c r="B9" s="2">
-        <v>3.2592793655799999</v>
+        <v>3.2632081893699998</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2517,7 +2541,7 @@
         <v>3.2592975811599998</v>
       </c>
       <c r="B10" s="2">
-        <v>3.2590481430599998</v>
+        <v>3.2613482136299998</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2525,7 +2549,7 @@
         <v>3.2584667198899999</v>
       </c>
       <c r="B11" s="2">
-        <v>3.25833671483</v>
+        <v>3.25897794217</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2533,7 +2557,7 @@
         <v>3.2582098036499998</v>
       </c>
       <c r="B12" s="2">
-        <v>3.2581325474599998</v>
+        <v>3.2592555833299999</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2541,7 +2565,7 @@
         <v>3.25811593295</v>
       </c>
       <c r="B13" s="2">
-        <v>3.2580442591000001</v>
+        <v>3.25848853866</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2549,7 +2573,7 @@
         <v>3.2578252948399999</v>
       </c>
       <c r="B14" s="2">
-        <v>3.2580196936800001</v>
+        <v>3.25812606117</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2557,7 +2581,7 @@
         <v>3.25780148606</v>
       </c>
       <c r="B15" s="2">
-        <v>3.2579981952399999</v>
+        <v>3.2580572873200002</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2565,7 +2589,7 @@
         <v>3.2577985228699999</v>
       </c>
       <c r="B16" s="2">
-        <v>3.2577562866699998</v>
+        <v>3.2580105649400002</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2573,7 +2597,7 @@
         <v>3.2577488136600001</v>
       </c>
       <c r="B17" s="2">
-        <v>3.25775530118</v>
+        <v>3.2580076544300001</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2581,7 +2605,7 @@
         <v>3.2577479507499998</v>
       </c>
       <c r="B18" s="2">
-        <v>3.2577568175099998</v>
+        <v>3.2580072390599999</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2589,7 +2613,7 @@
         <v>3.25774915057</v>
       </c>
       <c r="B19" s="2">
-        <v>3.2576911556599999</v>
+        <v>3.2577832354499998</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2597,7 +2621,7 @@
         <v>3.25773734247</v>
       </c>
       <c r="B20" s="2">
-        <v>3.2576916578500001</v>
+        <v>3.2577810714000002</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2605,7 +2629,7 @@
         <v>3.25773674669</v>
       </c>
       <c r="B21" s="2">
-        <v>3.2576916323399998</v>
+        <v>3.25777665181</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2613,7 +2637,7 @@
         <v>3.25773659656</v>
       </c>
       <c r="B22" s="2">
-        <v>3.2576801208299999</v>
+        <v>3.2577274532799998</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2621,7 +2645,7 @@
         <v>3.2577345531600002</v>
       </c>
       <c r="B23" s="2">
-        <v>3.2576807886900001</v>
+        <v>3.25772556587</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2629,7 +2653,7 @@
         <v>3.2577344578199998</v>
       </c>
       <c r="B24" s="2">
-        <v>3.2576813790700001</v>
+        <v>3.2577242521700001</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2637,7 +2661,7 @@
         <v>3.25773442741</v>
       </c>
       <c r="B25" s="2">
-        <v>3.2576788348200001</v>
+        <v>3.2577154093999998</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2645,7 +2669,7 @@
         <v>3.2577340447099998</v>
       </c>
       <c r="B26" s="2">
-        <v>3.2576788347700001</v>
+        <v>3.2577158257000001</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2653,7 +2677,7 @@
         <v>3.2577340506799999</v>
       </c>
       <c r="B27" s="2">
-        <v>3.2576786589100002</v>
+        <v>3.25771574925</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2661,7 +2685,7 @@
         <v>3.2577340295699999</v>
       </c>
       <c r="B28" s="2">
-        <v>3.2576782787199998</v>
+        <v>3.2577134944999999</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2669,7 +2693,7 @@
         <v>3.25773394434</v>
       </c>
       <c r="B29" s="2">
-        <v>3.2576782456300002</v>
+        <v>3.2577134439300002</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2677,7 +2701,7 @@
         <v>3.2577339470200002</v>
       </c>
       <c r="B30" s="2">
-        <v>3.2576782562200002</v>
+        <v>3.2577135502500001</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2685,36 +2709,66 @@
         <v>3.25773394463</v>
       </c>
       <c r="B31" s="2">
-        <v>3.25767815689</v>
+        <v>3.2577131170700002</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2">
-        <v>3.2576781542200002</v>
+        <v>3.2577131124099998</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2">
-        <v>3.25767815705</v>
+        <v>3.2577131080999999</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3">
+        <v>3.2577130272099999</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3">
+        <v>3.2577130243100001</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3">
+        <v>3.25771302816</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2730,8 +2784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
